--- a/biology/Médecine/Adolph_Eugene_Fick_(ophtalmologiste)/Adolph_Eugene_Fick_(ophtalmologiste).xlsx
+++ b/biology/Médecine/Adolph_Eugene_Fick_(ophtalmologiste)/Adolph_Eugene_Fick_(ophtalmologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolf Gaston Eugen Fick (1852-1937) est un ophtalmologiste allemand qui a inventé les lentilles de contact. Il est le neveu du physiologiste allemand Adolf Fick, dont le nom est associé à la loi de Fick en diffusion particulaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolf Gaston Eugen Fick est né à Marbourg (Allemagne) le 22 février 1852. Sa mère décède alors qu'il n'a que 3 ans, et son père, le professeur d'anatomie Ludwick Fick décède à son tour alors qu'Adolf a 6 ans.
 En conséquence, il est recueilli par son oncle et parrain, lui aussi nommé Adolf Eugen Fick. Celui-ci, physiologiste de renom, aurait grandement influencé son neveu à poursuivre des études d'ophtalmologie.
